--- a/data/trans_orig/IP3109_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP3109_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8AB12B1-E3AF-443E-BEC8-1528A66AFA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A31340C-BD45-4363-8C40-5059EF5448FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EAC333BC-4748-46BE-B84B-0A0D1351F4C2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{982863D7-91F8-40BB-92C5-0FEF9E570D88}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="214">
   <si>
     <t>Menores según la frecuencia de tomar leche o lácteos en 2023 (Tasa respuesta: 96,51%)</t>
   </si>
@@ -116,13 +116,13 @@
     <t>2,98%</t>
   </si>
   <si>
-    <t>10,01%</t>
+    <t>9,85%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>4,68%</t>
+    <t>4,88%</t>
   </si>
   <si>
     <t>2,82%</t>
@@ -134,106 +134,106 @@
     <t>6,99%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>8,94%</t>
+    <t>7,16%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
   </si>
   <si>
     <t>17,89%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
   </si>
   <si>
     <t>14,78%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
   </si>
   <si>
     <t>16,41%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
   </si>
   <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
   </si>
   <si>
     <t>14,23%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
   </si>
   <si>
     <t>65,95%</t>
   </si>
   <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
   </si>
   <si>
     <t>60,75%</t>
   </si>
   <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
   </si>
   <si>
     <t>63,47%</t>
   </si>
   <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -242,403 +242,403 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,58%</t>
+    <t>0,52%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>11,92%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
   </si>
   <si>
     <t>19,11%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>19,79%</t>
@@ -647,31 +647,34 @@
     <t>17,79%</t>
   </si>
   <si>
-    <t>21,94%</t>
+    <t>21,83%</t>
   </si>
   <si>
     <t>64,67%</t>
   </si>
   <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
   </si>
   <si>
     <t>66,73%</t>
   </si>
   <si>
-    <t>70,07%</t>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
   </si>
   <si>
     <t>65,65%</t>
   </si>
   <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1086,7 +1089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE155A7C-4D77-4499-A4F2-5090FE9953DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B67C8F-65FC-4FAA-9794-E6AB9734ACE8}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1995,13 +1998,13 @@
         <v>1620</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,7 +2055,7 @@
         <v>89</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,13 +2070,13 @@
         <v>55658</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H21" s="7">
         <v>61</v>
@@ -2082,13 +2085,13 @@
         <v>40189</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M21" s="7">
         <v>142</v>
@@ -2097,13 +2100,13 @@
         <v>95847</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,13 +2121,13 @@
         <v>106532</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
         <v>124</v>
@@ -2133,13 +2136,13 @@
         <v>83694</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M22" s="7">
         <v>265</v>
@@ -2148,13 +2151,13 @@
         <v>190226</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,13 +2172,13 @@
         <v>302900</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H23" s="7">
         <v>411</v>
@@ -2184,13 +2187,13 @@
         <v>297585</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M23" s="7">
         <v>793</v>
@@ -2199,13 +2202,13 @@
         <v>600484</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,7 +2264,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2273,13 +2276,13 @@
         <v>1595</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2288,13 +2291,13 @@
         <v>1135</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2303,10 +2306,10 @@
         <v>2730</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>123</v>
@@ -2429,10 +2432,10 @@
         <v>138</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -2441,13 +2444,13 @@
         <v>14771</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="M28" s="7">
         <v>42</v>
@@ -2456,13 +2459,13 @@
         <v>27981</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,13 +2480,13 @@
         <v>33107</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -2492,13 +2495,13 @@
         <v>27457</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M29" s="7">
         <v>92</v>
@@ -2507,13 +2510,13 @@
         <v>60564</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,13 +2531,13 @@
         <v>119202</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H30" s="7">
         <v>147</v>
@@ -2543,13 +2546,13 @@
         <v>98887</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M30" s="7">
         <v>302</v>
@@ -2558,13 +2561,13 @@
         <v>218088</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2635,13 @@
         <v>4641</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -2647,13 +2650,13 @@
         <v>5043</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -2662,13 +2665,13 @@
         <v>9684</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,13 +2686,13 @@
         <v>1065</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -2698,13 +2701,13 @@
         <v>1992</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -2713,13 +2716,13 @@
         <v>3058</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="P33" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,13 +2737,13 @@
         <v>21348</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H34" s="7">
         <v>33</v>
@@ -2749,13 +2752,13 @@
         <v>21182</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M34" s="7">
         <v>66</v>
@@ -2764,13 +2767,13 @@
         <v>42530</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,13 +2788,13 @@
         <v>78705</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H35" s="7">
         <v>93</v>
@@ -2800,13 +2803,13 @@
         <v>62373</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M35" s="7">
         <v>208</v>
@@ -2815,10 +2818,10 @@
         <v>141078</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>194</v>
@@ -2905,10 +2908,10 @@
         <v>207</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M37" s="7">
         <v>1185</v>
@@ -2917,13 +2920,13 @@
         <v>885299</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,7 +2982,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP3109_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP3109_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A31340C-BD45-4363-8C40-5059EF5448FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBEEDC71-E956-4714-8FCE-6977289A01E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{982863D7-91F8-40BB-92C5-0FEF9E570D88}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9D3105A6-780C-4F2D-B4AD-6288BDF81821}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="210">
   <si>
     <t>Menores según la frecuencia de tomar leche o lácteos en 2023 (Tasa respuesta: 96,51%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,616 +65,604 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>2,75%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>9,03%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>menos de 1 vez semana</t>
   </si>
   <si>
+    <t>2,82%</t>
+  </si>
+  <si>
     <t>1 ó 2 veces semana</t>
   </si>
   <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
     <t>3 ó 4 veces semana</t>
   </si>
   <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
     <t>5 ó 6 veces semana</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>Todos los días</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Todos los días</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>8,84%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>9,13%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1089,8 +1077,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B67C8F-65FC-4FAA-9794-E6AB9734ACE8}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA571571-1190-4F38-BACC-0EFFC110B7B9}">
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1207,17 +1195,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1477</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1229,44 +1219,46 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1477</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1278,10 +1270,10 @@
         <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1293,206 +1285,214 @@
         <v>12</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>849</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>4072</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>4921</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7235</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>10824</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>18059</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>12924</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>1171</v>
+        <v>5225</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="7">
         <v>19</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
       <c r="N8" s="7">
-        <v>1171</v>
+        <v>18150</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31213</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>37659</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>68871</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1501,355 +1501,357 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D10" s="7">
+        <v>53699</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="I10" s="7">
-        <v>1171</v>
+        <v>57780</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="N10" s="7">
-        <v>1171</v>
+        <v>111478</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>2254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>1493</v>
+        <v>3395</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>1493</v>
+        <v>5649</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>1631</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>3843</v>
+        <v>15922</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>858</v>
+        <v>12506</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="N13" s="7">
-        <v>4701</v>
+        <v>28428</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D14" s="7">
-        <v>9837</v>
+        <v>39852</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I14" s="7">
-        <v>7413</v>
+        <v>59207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="N14" s="7">
-        <v>17250</v>
+        <v>99059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C15" s="7">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="D15" s="7">
-        <v>5042</v>
+        <v>79329</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I15" s="7">
-        <v>9921</v>
+        <v>110095</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
-        <v>19</v>
+        <v>265</v>
       </c>
       <c r="N15" s="7">
-        <v>14963</v>
+        <v>189425</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C16" s="7">
-        <v>50</v>
+        <v>411</v>
       </c>
       <c r="D16" s="7">
-        <v>36258</v>
+        <v>313106</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
-        <v>40</v>
+        <v>382</v>
       </c>
       <c r="I16" s="7">
-        <v>30468</v>
+        <v>318959</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
-        <v>90</v>
+        <v>793</v>
       </c>
       <c r="N16" s="7">
-        <v>66725</v>
+        <v>632066</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,357 +1860,357 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>76</v>
+        <v>624</v>
       </c>
       <c r="D17" s="7">
-        <v>54980</v>
+        <v>451007</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7">
-        <v>67</v>
+        <v>630</v>
       </c>
       <c r="I17" s="7">
-        <v>50154</v>
+        <v>505250</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M17" s="7">
-        <v>143</v>
+        <v>1254</v>
       </c>
       <c r="N17" s="7">
-        <v>105133</v>
+        <v>956258</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>3046</v>
+        <v>1158</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1928</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" s="7">
         <v>3</v>
       </c>
-      <c r="I18" s="7">
-        <v>2415</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M18" s="7">
-        <v>7</v>
-      </c>
       <c r="N18" s="7">
-        <v>5461</v>
+        <v>3085</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>1065</v>
+        <v>1527</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" s="7">
+        <v>2</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1527</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1620</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D20" s="7">
-        <v>12125</v>
+        <v>4321</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>15980</v>
+        <v>5505</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="N20" s="7">
-        <v>28105</v>
+        <v>9826</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="D21" s="7">
-        <v>55658</v>
+        <v>14482</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I21" s="7">
-        <v>40189</v>
+        <v>14468</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="N21" s="7">
-        <v>95847</v>
+        <v>28951</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
+        <v>44</v>
+      </c>
+      <c r="D22" s="7">
+        <v>26879</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="7">
-        <v>106532</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="I22" s="7">
-        <v>83694</v>
+        <v>33676</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
-        <v>265</v>
+        <v>92</v>
       </c>
       <c r="N22" s="7">
-        <v>190226</v>
+        <v>60555</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C23" s="7">
-        <v>382</v>
+        <v>147</v>
       </c>
       <c r="D23" s="7">
-        <v>302900</v>
+        <v>97820</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="H23" s="7">
-        <v>411</v>
+        <v>155</v>
       </c>
       <c r="I23" s="7">
-        <v>297585</v>
+        <v>125561</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="M23" s="7">
-        <v>793</v>
+        <v>302</v>
       </c>
       <c r="N23" s="7">
-        <v>600484</v>
+        <v>223381</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,357 +2219,357 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>630</v>
+        <v>222</v>
       </c>
       <c r="D24" s="7">
-        <v>481326</v>
+        <v>146186</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="H24" s="7">
-        <v>624</v>
+        <v>233</v>
       </c>
       <c r="I24" s="7">
-        <v>440419</v>
+        <v>181139</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M24" s="7">
-        <v>1254</v>
+        <v>455</v>
       </c>
       <c r="N24" s="7">
-        <v>921744</v>
+        <v>327324</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>1595</v>
+        <v>4889</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H25" s="7">
+        <v>6</v>
+      </c>
+      <c r="I25" s="7">
+        <v>5323</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M25" s="7">
         <v>12</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1135</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3</v>
-      </c>
       <c r="N25" s="7">
-        <v>2730</v>
+        <v>10211</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>2070</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>1437</v>
+        <v>1087</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="M26" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N26" s="7">
-        <v>1437</v>
+        <v>3157</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C27" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D27" s="7">
-        <v>5380</v>
+        <v>21091</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="H27" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I27" s="7">
-        <v>4344</v>
+        <v>22083</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="M27" s="7">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="N27" s="7">
-        <v>9724</v>
+        <v>43175</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C28" s="7">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="D28" s="7">
-        <v>13210</v>
+        <v>61570</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="H28" s="7">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="I28" s="7">
-        <v>14771</v>
+        <v>84499</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="M28" s="7">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="N28" s="7">
-        <v>27981</v>
+        <v>146069</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C29" s="7">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="D29" s="7">
-        <v>33107</v>
+        <v>119132</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="H29" s="7">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="I29" s="7">
-        <v>27457</v>
+        <v>148997</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
-        <v>92</v>
+        <v>376</v>
       </c>
       <c r="N29" s="7">
-        <v>60564</v>
+        <v>268130</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7">
-        <v>155</v>
+        <v>598</v>
       </c>
       <c r="D30" s="7">
-        <v>119202</v>
+        <v>442139</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
-        <v>147</v>
+        <v>587</v>
       </c>
       <c r="I30" s="7">
-        <v>98887</v>
+        <v>482179</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
-        <v>302</v>
+        <v>1185</v>
       </c>
       <c r="N30" s="7">
-        <v>218088</v>
+        <v>924319</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,420 +2578,60 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
-        <v>233</v>
+        <v>913</v>
       </c>
       <c r="D31" s="7">
-        <v>172494</v>
+        <v>650892</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="H31" s="7">
-        <v>222</v>
+        <v>939</v>
       </c>
       <c r="I31" s="7">
-        <v>148030</v>
+        <v>744169</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M31" s="7">
-        <v>455</v>
+        <v>1852</v>
       </c>
       <c r="N31" s="7">
-        <v>320524</v>
+        <v>1395061</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="7">
-        <v>6</v>
-      </c>
-      <c r="D32" s="7">
-        <v>4641</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H32" s="7">
-        <v>6</v>
-      </c>
-      <c r="I32" s="7">
-        <v>5043</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M32" s="7">
-        <v>12</v>
-      </c>
-      <c r="N32" s="7">
-        <v>9684</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="7">
-        <v>2</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1065</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33" s="7">
-        <v>3</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1992</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M33" s="7">
-        <v>5</v>
-      </c>
-      <c r="N33" s="7">
-        <v>3058</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="7">
-        <v>33</v>
-      </c>
-      <c r="D34" s="7">
-        <v>21348</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H34" s="7">
-        <v>33</v>
-      </c>
-      <c r="I34" s="7">
-        <v>21182</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M34" s="7">
-        <v>66</v>
-      </c>
-      <c r="N34" s="7">
-        <v>42530</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="7">
-        <v>115</v>
-      </c>
-      <c r="D35" s="7">
-        <v>78705</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H35" s="7">
-        <v>93</v>
-      </c>
-      <c r="I35" s="7">
-        <v>62373</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M35" s="7">
-        <v>208</v>
-      </c>
-      <c r="N35" s="7">
-        <v>141078</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="7">
-        <v>196</v>
-      </c>
-      <c r="D36" s="7">
-        <v>144681</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H36" s="7">
-        <v>181</v>
-      </c>
-      <c r="I36" s="7">
-        <v>122243</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M36" s="7">
-        <v>377</v>
-      </c>
-      <c r="N36" s="7">
-        <v>266924</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="7">
-        <v>587</v>
-      </c>
-      <c r="D37" s="7">
-        <v>458360</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H37" s="7">
-        <v>598</v>
-      </c>
-      <c r="I37" s="7">
-        <v>426939</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="A32" t="s">
         <v>209</v>
       </c>
-      <c r="M37" s="7">
-        <v>1185</v>
-      </c>
-      <c r="N37" s="7">
-        <v>885299</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="7">
-        <v>939</v>
-      </c>
-      <c r="D38" s="7">
-        <v>708800</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="7">
-        <v>914</v>
-      </c>
-      <c r="I38" s="7">
-        <v>639773</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" s="7">
-        <v>1853</v>
-      </c>
-      <c r="N38" s="7">
-        <v>1348573</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>213</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A32:A38"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
